--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/scalobility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E53AF51-04ED-7B42-92AE-41652BD9BB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7D387A-F279-ED4A-9372-2C765B844DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>blackscholes</t>
   </si>
@@ -74,27 +72,6 @@
     <t>x264</t>
   </si>
   <si>
-    <t>16Thread-1Node</t>
-  </si>
-  <si>
-    <t>16Thread-2Node</t>
-  </si>
-  <si>
-    <t>32Thread-2Node</t>
-  </si>
-  <si>
-    <t>32Thread-4Node</t>
-  </si>
-  <si>
-    <t>64Thread-4Node</t>
-  </si>
-  <si>
-    <t>64Thread-8Node</t>
-  </si>
-  <si>
-    <t>128Thread-8Node</t>
-  </si>
-  <si>
     <t>16Thread</t>
   </si>
   <si>
@@ -105,6 +82,30 @@
   </si>
   <si>
     <t>128Thread</t>
+  </si>
+  <si>
+    <t>16T-1N</t>
+  </si>
+  <si>
+    <t>16T-2N</t>
+  </si>
+  <si>
+    <t>8T-1N</t>
+  </si>
+  <si>
+    <t>32T-2N</t>
+  </si>
+  <si>
+    <t>32T-4N</t>
+  </si>
+  <si>
+    <t>64T-4N</t>
+  </si>
+  <si>
+    <t>64T-8N</t>
+  </si>
+  <si>
+    <t>128T-8N</t>
   </si>
 </sst>
 </file>
@@ -360,17 +361,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread-1Node</c:v>
+                  <c:v>16T-1N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct10">
+            <a:pattFill prst="pct25">
               <a:fgClr>
                 <a:scrgbClr r="0" g="0" b="0"/>
               </a:fgClr>
@@ -426,7 +427,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -480,22 +481,27 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread-2Node</c:v>
+                  <c:v>16T-2N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -544,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -598,11 +604,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread-2Node</c:v>
+                  <c:v>32T-2N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -664,7 +670,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -718,11 +724,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread-4Node</c:v>
+                  <c:v>32T-4N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -782,7 +788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -836,11 +842,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread-4Node</c:v>
+                  <c:v>64T-4N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -902,7 +908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -956,11 +962,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread-8Node</c:v>
+                  <c:v>64T-8N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1022,7 +1028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>Sheet1!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1076,11 +1082,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128Thread-8Node</c:v>
+                  <c:v>128T-8N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,7 +1150,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1312,9 +1318,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7639113172092314E-2"/>
-          <c:y val="4.8096837490916748E-2"/>
-          <c:w val="0.89999987795105862"/>
+          <c:x val="0.22880840499527327"/>
+          <c:y val="7.2426377268308098E-2"/>
+          <c:w val="0.54177267408281238"/>
           <c:h val="8.984391837203845E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1346,7 +1352,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1376,17 +1381,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
+              <c:f>Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread-1Node</c:v>
+                  <c:v>16T-1N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct5">
+            <a:pattFill prst="pct25">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -1445,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$B$36</c:f>
+              <c:f>Sheet1!$C$25:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1499,22 +1504,27 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$24</c:f>
+              <c:f>Sheet1!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread-2Node</c:v>
+                  <c:v>16T-2N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1563,7 +1573,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$36</c:f>
+              <c:f>Sheet1!$D$25:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1617,11 +1627,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>Sheet1!$E$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread-2Node</c:v>
+                  <c:v>32T-2N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1683,7 +1693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$36</c:f>
+              <c:f>Sheet1!$E$25:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1737,11 +1747,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$24</c:f>
+              <c:f>Sheet1!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread-4Node</c:v>
+                  <c:v>32T-4N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1800,7 +1810,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$36</c:f>
+              <c:f>Sheet1!$F$25:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1854,11 +1864,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$24</c:f>
+              <c:f>Sheet1!$G$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread-4Node</c:v>
+                  <c:v>64T-4N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1920,7 +1930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$F$36</c:f>
+              <c:f>Sheet1!$G$25:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1974,11 +1984,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$24</c:f>
+              <c:f>Sheet1!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread-8Node</c:v>
+                  <c:v>64T-8N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2042,7 +2052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$25:$G$36</c:f>
+              <c:f>Sheet1!$H$25:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2096,11 +2106,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$24</c:f>
+              <c:f>Sheet1!$I$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128Thread-8Node</c:v>
+                  <c:v>128T-8N</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2120,6 +2130,11 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-EE60-FF4A-A058-32091527BBAF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2167,7 +2182,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$25:$H$36</c:f>
+              <c:f>Sheet1!$I$25:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2262,18 +2277,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
+                  <a:defRPr sz="1200"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2281,8 +2296,649 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8199296524476858E-2"/>
-              <c:y val="0.27897485740920858"/>
+              <c:x val="3.3699471067081883E-2"/>
+              <c:y val="0.13886737102431801"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121500552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23608737184184847"/>
+          <c:y val="7.3099450267191918E-2"/>
+          <c:w val="0.52954750225519287"/>
+          <c:h val="8.9951655553855439E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:latin typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct25">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.85286482826291188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65606885648570545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7116516420376594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59204028274102327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58262114063309034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50178591438984765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55987287267631636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0115424371149297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54771110313502092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50154632245440023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36229417522065344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60058154902065986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2ABB-F940-AC1F-36900A62E078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.77863887739530435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.507026172497829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58270656638253238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50924760338888742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36818568788409439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25147075302722993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39899015789131831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99155851612881107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36745957599923795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25287974540935998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22724758541453519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59397303727257422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2ABB-F940-AC1F-36900A62E078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.74496821036526828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47294923590188986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5406553937518892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52890481258436628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27063322609233587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12779443075022412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41780295264234402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99339611806747552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30712181100169383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1291291291234965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19376249840005527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60703900910453257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2ABB-F940-AC1F-36900A62E078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$41:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.73616492985357174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50799227122609514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54977685318397607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52764597657007395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29046214470359405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.832698341718961E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2401835144678302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99632479613798453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33247574560018667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8879924709744526E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22299280946016087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62456100601109976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2ABB-F940-AC1F-36900A62E078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2121500552"/>
+        <c:axId val="2121495336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2121500552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121495336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121495336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.5435225218794011E-2"/>
+              <c:y val="6.5767920757126133E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2340,634 +2996,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$41:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.85286482826291188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65606885648570545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7116516420376594</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59204028274102327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58262114063309034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50178591438984765</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55987287267631636</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0115424371149297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54771110313502092</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50154632245440023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36229417522065344</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60058154902065986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2ABB-F940-AC1F-36900A62E078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$41:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.77863887739530435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.507026172497829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58270656638253238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50924760338888742</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36818568788409439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25147075302722993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39899015789131831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99155851612881107</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.36745957599923795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25287974540935998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22724758541453519</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59397303727257422</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2ABB-F940-AC1F-36900A62E078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$41:$D$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.74496821036526828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47294923590188986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5406553937518892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52890481258436628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27063322609233587</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12779443075022412</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41780295264234402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99339611806747552</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30712181100169383</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1291291291234965</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19376249840005527</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60703900910453257</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2ABB-F940-AC1F-36900A62E078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$41:$E$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.73616492985357174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50799227122609514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54977685318397607</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52764597657007395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29046214470359405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.832698341718961E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2401835144678302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99632479613798453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33247574560018667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8879924709744526E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22299280946016087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.62456100601109976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2ABB-F940-AC1F-36900A62E078}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2121500552"/>
-        <c:axId val="2121495336"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2121500552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121495336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2121495336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Normalized Runtime</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8199296524476858E-2"/>
-              <c:y val="0.27897485740920858"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121500552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="800"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:latin typeface="Times New Roman"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2975,13 +3003,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>150307</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>192911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>77580</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>58421</xdr:rowOff>
@@ -3011,13 +3039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>169249</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>77743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>96523</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>142119</xdr:rowOff>
@@ -3047,13 +3075,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>163891</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>51103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>85419</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>115480</xdr:rowOff>
@@ -3084,156 +3112,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08497</cdr:x>
-      <cdr:y>0.26015</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98048</cdr:x>
-      <cdr:y>0.2692</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="4" name="Straight Connector 3">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E2E1D1-AC0F-3342-B861-341920C10813}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="623126" y="546510"/>
-          <a:ext cx="6567650" cy="19011"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08438</cdr:x>
-      <cdr:y>0.26635</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98282</cdr:x>
-      <cdr:y>0.26772</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C97F38-36E2-7941-A0D5-C46FD8FD3A7D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="618805" y="559515"/>
-          <a:ext cx="6589082" cy="2878"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08438</cdr:x>
-      <cdr:y>0.26635</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98282</cdr:x>
-      <cdr:y>0.26772</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13C97F38-36E2-7941-A0D5-C46FD8FD3A7D}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="618805" y="559515"/>
-          <a:ext cx="6589082" cy="2878"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3533,427 +3411,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="132" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="132" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="1">
         <v>0.85128726286660639</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>0.85459951823547131</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>0.78285907859981929</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>0.78568202349593497</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.74856970791629029</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.74909665763023181</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.73701445347786809</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>0.50243366304490633</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>0.68289108700512069</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>0.40869838280193227</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>0.56440048148711153</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.43224996073832106</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.52797404092891664</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.54885434656306376</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="1">
         <v>0.7598332428880028</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>0.94065615393405988</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>0.75903570799565845</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>0.77916742209634893</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>0.7151954566407337</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.72536281813192272</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.70394538111387728</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>0.58809636274256016</v>
       </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>0.61112423240434577</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>0.43811998116674539</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>0.47319319792536607</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.45063769480869154</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.47059518183467169</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.48264052914501648</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
         <v>0.54999969268151772</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D6" s="4">
         <v>0.57046915239513785</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>0.47459602985332711</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>0.38260741293155198</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>0.31086698641447424</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.29404642148115212</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.30617116000434341</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>0.50373628220493172</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D7" s="4">
         <v>0.5018803969487845</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>0.25284860878863219</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>0.25272955199686248</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.12840624978226614</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.12830820301339738</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>6.8023447184306904E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1">
         <v>0.59010730767421449</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D8" s="4">
         <v>0.5712222882841701</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>0.38172088676403415</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>0.34165746482361714</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>0.24301367535324095</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>0.23239616070111882</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.24216427418560132</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
         <v>0.99848153118158056</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>0.99980577724415565</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>0.99856981425241886</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1.0014125291334133</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>1.0029168726604987</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>1.0024719259834733</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>1.0061621583445157</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="1">
         <v>0.60753599469997444</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>0.75619069885241719</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="4">
         <v>0.47261675141131881</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>0.44512634675896817</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>0.31965632122621052</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.29588715490220185</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.30379722173325507</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1">
         <v>0.50506064045889476</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>0.50540965010202865</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>0.25460256521607605</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>0.25713288544081175</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.13223104442056821</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.13096588429982409</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>7.5342465717734827E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="1">
         <v>0.3609145586594118</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>0.38276136563647012</v>
       </c>
-      <c r="D12" s="4">
+      <c r="E12" s="4">
         <v>0.23040863257700772</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>0.23465416594269933</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>0.18583053244421546</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.20382982488983367</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.24429506457007921</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="15" customFormat="1">
+    <row r="13" spans="1:9" s="15" customFormat="1">
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="14"/>
+      <c r="C13" s="1">
         <v>0.59980545536902996</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>0.61573379806240447</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>0.57431200096016999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>0.57771653222911334</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>0.58553884813382184</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.58484983584671746</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.59749523769955015</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="15" customFormat="1">
+    <row r="14" spans="1:9" s="15" customFormat="1">
       <c r="A14" s="14"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="6"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1">
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" s="15" customFormat="1">
       <c r="A21" s="16"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" s="15" customFormat="1">
       <c r="A22" s="16"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" s="15" customFormat="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3962,682 +3862,743 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1">
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" s="15" customFormat="1">
       <c r="A24" s="18"/>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
+      <c r="B24" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.85053313741908732</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.85354734186051762</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>0.78022681887796241</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>0.78177159865265056</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>0.7438303002961455</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>0.74334049205078923</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>0.7404769978523793</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
         <v>0.51745412359621401</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>0.71709554945067666</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>0.43165998733840261</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>0.60156085214679789</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>0.46335161358589605</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>0.54919848134339089</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>0.80099135203205662</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.8050461175443907</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>0.9274453024497481</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>0.80979193479877776</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>0.88728013728252408</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>0.81445731445985747</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>0.82746138996819507</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>0.83279708279529652</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
         <v>0.58872122476033673</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>0.63531225902090804</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>0.49410728057622294</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>0.52891287582622681</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>0.54400264351531225</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>0.55402577377644247</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>0.59775305642117194</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.54739910396805347</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.56308890682870016</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>0.47568162723674179</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>0.38119770836029443</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.31153646266636265</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.29271198591656344</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>0.31137418269438161</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.50280662952546262</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.50174276995492595</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>0.25221870713009881</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>0.25244967664100337</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.12843304683781742</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>0.12823707270808254</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>6.8590945995128647E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20">
         <v>0.58589547590112068</v>
       </c>
-      <c r="C31" s="20">
+      <c r="D31" s="20">
         <v>0.55175244889721931</v>
       </c>
-      <c r="D31" s="20">
+      <c r="E31" s="20">
         <v>0.364815129387703</v>
       </c>
-      <c r="E31" s="20">
+      <c r="F31" s="20">
         <v>0.36150274615461298</v>
       </c>
-      <c r="F31" s="20">
+      <c r="G31" s="20">
         <v>0.80176660437482505</v>
       </c>
-      <c r="G31" s="20">
+      <c r="H31" s="20">
         <v>0.39513617575180243</v>
       </c>
-      <c r="H31" s="20">
+      <c r="I31" s="20">
         <v>1.406630428618493</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20">
         <v>0.9877274892850898</v>
       </c>
-      <c r="C32" s="20">
+      <c r="D32" s="20">
         <v>1.010347784667063</v>
       </c>
-      <c r="D32" s="20">
+      <c r="E32" s="20">
         <v>1.0087470223916817</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="20">
         <v>1.0088994759516636</v>
       </c>
-      <c r="F32" s="20">
+      <c r="G32" s="20">
         <v>0.98999523584175297</v>
       </c>
-      <c r="G32" s="20">
+      <c r="H32" s="20">
         <v>0.99220581229913052</v>
       </c>
-      <c r="H32" s="20">
+      <c r="I32" s="20">
         <v>0.99232015246111338</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="20">
         <v>0.62792653588065472</v>
       </c>
-      <c r="C33" s="20">
+      <c r="D33" s="20">
         <v>0.93606118098528923</v>
       </c>
-      <c r="D33" s="20">
+      <c r="E33" s="20">
         <v>0.73438691884872476</v>
       </c>
-      <c r="E33" s="20">
+      <c r="F33" s="20">
         <v>0.61685606430201945</v>
       </c>
-      <c r="F33" s="20">
+      <c r="G33" s="20">
         <v>0.55733761027176609</v>
       </c>
-      <c r="G33" s="20">
+      <c r="H33" s="20">
         <v>0.36904179787645514</v>
       </c>
-      <c r="H33" s="20">
+      <c r="I33" s="20">
         <v>0.4614782795790271</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20">
         <v>0.50056922670811199</v>
       </c>
-      <c r="C34" s="20">
+      <c r="D34" s="20">
         <v>0.50105088010682841</v>
       </c>
-      <c r="D34" s="20">
+      <c r="E34" s="20">
         <v>0.25243016026637255</v>
       </c>
-      <c r="E34" s="20">
+      <c r="F34" s="20">
         <v>0.25216744022784304</v>
       </c>
-      <c r="F34" s="20">
+      <c r="G34" s="20">
         <v>0.12847009370142601</v>
       </c>
-      <c r="G34" s="20">
+      <c r="H34" s="20">
         <v>0.12886417372664299</v>
       </c>
-      <c r="H34" s="20">
+      <c r="I34" s="20">
         <v>8.7748489358916729E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="20">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
         <v>0.36167908509097207</v>
       </c>
-      <c r="C35" s="20">
+      <c r="D35" s="20">
         <v>0.37229249697452782</v>
       </c>
-      <c r="D35" s="20">
+      <c r="E35" s="20">
         <v>0.22552417259747012</v>
       </c>
-      <c r="E35" s="20">
+      <c r="F35" s="20">
         <v>0.24597123549298217</v>
       </c>
-      <c r="F35" s="20">
+      <c r="G35" s="20">
         <v>0.18874545138000345</v>
       </c>
-      <c r="G35" s="20">
+      <c r="H35" s="20">
         <v>0.21932940564442904</v>
       </c>
-      <c r="H35" s="20">
+      <c r="I35" s="20">
         <v>0.247617397331485</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
         <v>0.60525781977421966</v>
       </c>
-      <c r="C36" s="2">
+      <c r="D36" s="2">
         <v>0.6184835084657212</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>0.58124061828798346</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>0.58428333805751842</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>0.59040934723267879</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>0.59073390400333581</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>0.6700880360192778</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="11"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="18"/>
-      <c r="B40" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B40" s="18"/>
       <c r="C40" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1">
         <v>0.85286482826291188</v>
       </c>
-      <c r="C41" s="2">
+      <c r="D41" s="2">
         <v>0.77863887739530435</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>0.74496821036526828</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <v>0.73616492985357174</v>
       </c>
-      <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="5"/>
+      <c r="C42" s="1">
         <v>0.65606885648570545</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>0.507026172497829</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>0.47294923590188986</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>0.50799227122609514</v>
       </c>
-      <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1">
         <v>0.7116516420376594</v>
       </c>
-      <c r="C43" s="2">
+      <c r="D43" s="2">
         <v>0.58270656638253238</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>0.5406553937518892</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <v>0.54977685318397607</v>
       </c>
-      <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="5"/>
+      <c r="C44" s="1">
         <v>0.59204028274102327</v>
       </c>
-      <c r="C44" s="2">
+      <c r="D44" s="2">
         <v>0.50924760338888742</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>0.52890481258436628</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <v>0.52764597657007395</v>
       </c>
-      <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="5"/>
+      <c r="C45" s="1">
         <v>0.58262114063309034</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>0.36818568788409439</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>0.27063322609233587</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0.29046214470359405</v>
       </c>
-      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="5"/>
+      <c r="C46" s="1">
         <v>0.50178591438984765</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.25147075302722993</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>0.12779443075022412</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>6.832698341718961E-2</v>
       </c>
-      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="20">
+      <c r="B47" s="3"/>
+      <c r="C47" s="20">
         <v>0.55987287267631636</v>
       </c>
-      <c r="C47" s="20">
+      <c r="D47" s="20">
         <v>0.39899015789131831</v>
       </c>
-      <c r="D47" s="20">
+      <c r="E47" s="20">
         <v>0.41780295264234402</v>
       </c>
-      <c r="E47" s="20">
+      <c r="F47" s="20">
         <v>1.2401835144678302</v>
       </c>
-      <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="20">
+      <c r="B48" s="5"/>
+      <c r="C48" s="20">
         <v>1.0115424371149297</v>
       </c>
-      <c r="C48" s="20">
+      <c r="D48" s="20">
         <v>0.99155851612881107</v>
       </c>
-      <c r="D48" s="20">
+      <c r="E48" s="20">
         <v>0.99339611806747552</v>
       </c>
-      <c r="E48" s="20">
+      <c r="F48" s="20">
         <v>0.99632479613798453</v>
       </c>
-      <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="20">
+      <c r="B49" s="3"/>
+      <c r="C49" s="20">
         <v>0.54771110313502092</v>
       </c>
-      <c r="C49" s="20">
+      <c r="D49" s="20">
         <v>0.36745957599923795</v>
       </c>
-      <c r="D49" s="20">
+      <c r="E49" s="20">
         <v>0.30712181100169383</v>
       </c>
-      <c r="E49" s="20">
+      <c r="F49" s="20">
         <v>0.33247574560018667</v>
       </c>
-      <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="3"/>
+      <c r="C50" s="20">
         <v>0.50154632245440023</v>
       </c>
-      <c r="C50" s="20">
+      <c r="D50" s="20">
         <v>0.25287974540935998</v>
       </c>
-      <c r="D50" s="20">
+      <c r="E50" s="20">
         <v>0.1291291291234965</v>
       </c>
-      <c r="E50" s="20">
+      <c r="F50" s="20">
         <v>8.8879924709744526E-2</v>
       </c>
-      <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="5"/>
+      <c r="C51" s="20">
         <v>0.36229417522065344</v>
       </c>
-      <c r="C51" s="20">
+      <c r="D51" s="20">
         <v>0.22724758541453519</v>
       </c>
-      <c r="D51" s="20">
+      <c r="E51" s="20">
         <v>0.19376249840005527</v>
       </c>
-      <c r="E51" s="20">
+      <c r="F51" s="20">
         <v>0.22299280946016087</v>
       </c>
-      <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="14"/>
+      <c r="C52" s="1">
         <v>0.60058154902065986</v>
       </c>
-      <c r="C52" s="2">
+      <c r="D52" s="2">
         <v>0.59397303727257422</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>0.60703900910453257</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <v>0.62456100601109976</v>
       </c>
-      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
-      <c r="B54" s="4"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -4646,8 +4607,9 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -4656,8 +4618,9 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4666,8 +4629,9 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -4676,8 +4640,9 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4686,8 +4651,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4696,228 +4662,251 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="12"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="5"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="5"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="4"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="5"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="5"/>
-      <c r="B72" s="4"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
+      <c r="B74" s="3"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" s="15" customFormat="1">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" s="15" customFormat="1">
       <c r="A76" s="14"/>
-      <c r="B76" s="21"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
       <c r="H76" s="21"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="21"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="6"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="7"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="7"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="7"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="7"/>
-      <c r="B80" s="4"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="1"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
+      <c r="B82" s="1"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" s="15" customFormat="1">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" s="15" customFormat="1">
       <c r="A83" s="16"/>
-      <c r="B83" s="21"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
       <c r="H83" s="21"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="11"/>
-      <c r="B84" s="4"/>
+      <c r="B84" s="11"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" s="15" customFormat="1">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" s="15" customFormat="1">
       <c r="A85" s="18"/>
-      <c r="B85" s="16"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="16"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -4926,8 +4915,9 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4936,8 +4926,9 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -4946,8 +4937,9 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -4956,16 +4948,18 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="11"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="11"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/scalobility/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7D387A-F279-ED4A-9372-2C765B844DAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545214B8-F1B8-D04D-96D2-6B20192273CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>blackscholes</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>128T-8N</t>
+  </si>
+  <si>
+    <t>bingding</t>
+  </si>
+  <si>
+    <t>numalloc</t>
   </si>
 </sst>
 </file>
@@ -361,6 +367,129 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8T-1N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct90">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-840F-6F48-970E-982C5DEF7628}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -472,13 +601,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000002-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
@@ -595,13 +724,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000003-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
@@ -715,13 +844,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000004-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$1</c:f>
@@ -833,13 +962,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000005-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
@@ -953,13 +1082,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000006-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="0"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -1073,13 +1202,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000000-7FC3-2F4E-BF01-4119D5ABFE33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$1</c:f>
@@ -1195,7 +1324,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FC3-2F4E-BF01-4119D5ABFE33}"/>
+              <c16:uniqueId val="{00000000-2772-B34A-9091-71B106DECB5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1310,6 +1439,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1320,8 +1450,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.22880840499527327"/>
           <c:y val="7.2426377268308098E-2"/>
-          <c:w val="0.54177267408281238"/>
-          <c:h val="8.984391837203845E-2"/>
+          <c:w val="0.55184793658850151"/>
+          <c:h val="8.8645720957947441E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3413,15 +3543,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="132" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3448,7 +3582,9 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="C2" s="1">
         <v>0.85128726286660639</v>
       </c>
@@ -3475,7 +3611,9 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
       <c r="C3" s="1">
         <v>0.50243366304490633</v>
       </c>
@@ -3502,7 +3640,9 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
       <c r="C4" s="1">
         <v>0.7598332428880028</v>
       </c>
@@ -3529,7 +3669,9 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
       <c r="C5" s="1">
         <v>0.58809636274256016</v>
       </c>
@@ -3556,7 +3698,9 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
       <c r="C6" s="1">
         <v>0.54999969268151772</v>
       </c>
@@ -3583,7 +3727,9 @@
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
       <c r="C7" s="1">
         <v>0.50373628220493172</v>
       </c>
@@ -3610,7 +3756,9 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
       <c r="C8" s="1">
         <v>0.59010730767421449</v>
       </c>
@@ -3637,7 +3785,9 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
       <c r="C9" s="1">
         <v>0.99848153118158056</v>
       </c>
@@ -3664,7 +3814,9 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
       <c r="C10" s="1">
         <v>0.60753599469997444</v>
       </c>
@@ -3691,7 +3843,9 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
       <c r="C11" s="1">
         <v>0.50506064045889476</v>
       </c>
@@ -3718,7 +3872,9 @@
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
       <c r="C12" s="1">
         <v>0.3609145586594118</v>
       </c>
@@ -3745,7 +3901,9 @@
       <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
       <c r="C13" s="1">
         <v>0.59980545536902996</v>
       </c>
@@ -3865,7 +4023,9 @@
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" s="15" customFormat="1">
-      <c r="A24" s="18"/>
+      <c r="A24" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545214B8-F1B8-D04D-96D2-6B20192273CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4175A-A232-2048-B007-D7414ABE64EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>blackscholes</t>
   </si>
@@ -113,12 +115,24 @@
   <si>
     <t>numalloc</t>
   </si>
+  <si>
+    <t>8Thread</t>
+  </si>
+  <si>
+    <t>128threads</t>
+  </si>
+  <si>
+    <t>W/O Thread Binding</t>
+  </si>
+  <si>
+    <t>With Thread Binding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,12 +188,6 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,12 +205,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,24 +270,24 @@
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -297,16 +299,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
@@ -377,7 +377,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct90">
+            <a:pattFill prst="smCheck">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -1450,8 +1450,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.22880840499527327"/>
           <c:y val="7.2426377268308098E-2"/>
-          <c:w val="0.55184793658850151"/>
-          <c:h val="8.8645720957947441E-2"/>
+          <c:w val="0.54900469555055242"/>
+          <c:h val="8.9300760219163999E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1511,6 +1511,129 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8T-1N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11AE-F745-867F-D03383B58B9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1625,13 +1748,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000002-11AE-F745-867F-D03383B58B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$24</c:f>
@@ -1748,13 +1871,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000003-11AE-F745-867F-D03383B58B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$24</c:f>
@@ -1868,13 +1991,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000004-11AE-F745-867F-D03383B58B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:idx val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$24</c:f>
@@ -1985,13 +2108,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000005-11AE-F745-867F-D03383B58B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
+          <c:idx val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$24</c:f>
@@ -2105,13 +2228,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000006-11AE-F745-867F-D03383B58B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
+          <c:idx val="0"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$24</c:f>
@@ -2227,13 +2350,13 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-11AE-F745-867F-D03383B58B9C}"/>
+              <c16:uniqueId val="{00000001-811D-B442-AC30-79068F153B6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$24</c:f>
@@ -2260,11 +2383,6 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-EE60-FF4A-A058-32091527BBAF}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2357,7 +2475,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-811D-B442-AC30-79068F153B6A}"/>
+              <c16:uniqueId val="{00000001-5F60-564F-BE32-E1F7E0E9FC3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2455,8 +2573,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.23608737184184847"/>
           <c:y val="7.3099450267191918E-2"/>
-          <c:w val="0.52954750225519287"/>
-          <c:h val="8.9951655553855439E-2"/>
+          <c:w val="0.5490046213093015"/>
+          <c:h val="8.9485378577125477E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2520,7 +2638,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2638,12 +2756,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2ABB-F940-AC1F-36900A62E078}"/>
+              <c16:uniqueId val="{00000008-CBA7-A24A-A17D-A183CCB3A563}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2761,12 +2879,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2ABB-F940-AC1F-36900A62E078}"/>
+              <c16:uniqueId val="{00000009-CBA7-A24A-A17D-A183CCB3A563}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="6"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2881,12 +2999,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2ABB-F940-AC1F-36900A62E078}"/>
+              <c16:uniqueId val="{0000000A-CBA7-A24A-A17D-A183CCB3A563}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="7"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -2998,7 +3116,884 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2ABB-F940-AC1F-36900A62E078}"/>
+              <c16:uniqueId val="{0000000B-CBA7-A24A-A17D-A183CCB3A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct25">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.85286482826291188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65606885648570545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7116516420376594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59204028274102327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58262114063309034</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50178591438984765</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55987287267631636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0115424371149297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54771110313502092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50154632245440023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36229417522065344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60058154902065986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBA7-A24A-A17D-A183CCB3A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.77863887739530435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.507026172497829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58270656638253238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50924760338888742</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36818568788409439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25147075302722993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39899015789131831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99155851612881107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36745957599923795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25287974540935998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22724758541453519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59397303727257422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBA7-A24A-A17D-A183CCB3A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.74496821036526828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47294923590188986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5406553937518892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52890481258436628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27063322609233587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12779443075022412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41780295264234402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99339611806747552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30712181100169383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1291291291234965</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19376249840005527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60703900910453257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CBA7-A24A-A17D-A183CCB3A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$41:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.73616492985357174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50799227122609514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54977685318397607</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52764597657007395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29046214470359405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.832698341718961E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2401835144678302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99632479613798453</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33247574560018667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8879924709744526E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22299280946016087</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62456100601109976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CBA7-A24A-A17D-A183CCB3A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2121500552"/>
+        <c:axId val="2121495336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2121500552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121495336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121495336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Normalized Runtime</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.5435225218794011E-2"/>
+              <c:y val="6.5767920757126133E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121500552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:latin typeface="Times New Roman"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W/O Thread Binding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="smCheck">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$56:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E66D-5042-B5D2-D80BBCADDB56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With Thread Binding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct25">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$56:$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$56:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0043438266393403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3131051175293746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0045278137154063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99596256175313636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0120243023100548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0045100450757398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0268253869824095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0004226705091259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0199723326992911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0105900150307447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0906315587046593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99866981074551697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E66D-5042-B5D2-D80BBCADDB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3206,15 +4201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>163891</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>51103</xdr:rowOff>
+      <xdr:colOff>316291</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>85419</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>115480</xdr:rowOff>
+      <xdr:colOff>237819</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>98547</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3236,6 +4231,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>751262</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>98243</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7576ACDA-A0F0-9644-9FF4-2ED3E575AB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3543,13 +4576,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="138" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -3578,7 +4611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +4640,7 @@
         <v>0.73701445347786809</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -3636,7 +4669,7 @@
         <v>0.54885434656306376</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3665,7 +4698,7 @@
         <v>0.70394538111387728</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -3694,7 +4727,7 @@
         <v>0.48264052914501648</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3723,7 +4756,7 @@
         <v>0.30617116000434341</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3752,7 +4785,7 @@
         <v>6.8023447184306904E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3781,7 +4814,7 @@
         <v>0.24216427418560132</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +4843,7 @@
         <v>1.0061621583445157</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3839,7 +4872,7 @@
         <v>0.30379722173325507</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3868,7 +4901,7 @@
         <v>7.5342465717734827E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -3897,8 +4930,8 @@
         <v>0.24429506457007921</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3">
@@ -3926,15 +4959,15 @@
         <v>0.59749523769955015</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:9">
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="1"/>
@@ -3945,7 +4978,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="1"/>
@@ -3956,7 +4989,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
@@ -3967,7 +5000,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3978,7 +5011,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3989,9 +5022,9 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4000,9 +5033,9 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="15" customFormat="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4011,22 +5044,22 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" s="15" customFormat="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" s="15" customFormat="1">
-      <c r="A24" s="18" t="s">
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4051,7 +5084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +5113,7 @@
         <v>0.7404769978523793</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -4109,7 +5142,7 @@
         <v>0.80099135203205662</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
@@ -4138,7 +5171,7 @@
         <v>0.83279708279529652</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
@@ -4167,7 +5200,7 @@
         <v>0.59775305642117194</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -4196,7 +5229,7 @@
         <v>0.31137418269438161</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>5</v>
       </c>
@@ -4225,156 +5258,156 @@
         <v>6.8590945995128647E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>0.58589547590112068</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>0.55175244889721931</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>0.364815129387703</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>0.36150274615461298</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>0.80176660437482505</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <v>0.39513617575180243</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>1.406630428618493</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>0.9877274892850898</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>1.010347784667063</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>1.0087470223916817</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>1.0088994759516636</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>0.98999523584175297</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="18">
         <v>0.99220581229913052</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>0.99232015246111338</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>0.62792653588065472</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>0.93606118098528923</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>0.73438691884872476</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>0.61685606430201945</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>0.55733761027176609</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>0.36904179787645514</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>0.4614782795790271</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>0.50056922670811199</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="18">
         <v>0.50105088010682841</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>0.25243016026637255</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="18">
         <v>0.25216744022784304</v>
       </c>
-      <c r="G34" s="20">
+      <c r="G34" s="18">
         <v>0.12847009370142601</v>
       </c>
-      <c r="H34" s="20">
+      <c r="H34" s="18">
         <v>0.12886417372664299</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <v>8.7748489358916729E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>0.36167908509097207</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>0.37229249697452782</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>0.22552417259747012</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>0.24597123549298217</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>0.18874545138000345</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="18">
         <v>0.21932940564442904</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>0.247617397331485</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="12">
         <v>1</v>
       </c>
       <c r="C36" s="1">
@@ -4399,7 +5432,7 @@
         <v>0.6700880360192778</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
@@ -4410,9 +5443,9 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -4421,7 +5454,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -4432,9 +5465,11 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
@@ -4451,11 +5486,13 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
       <c r="C41" s="1">
         <v>0.85286482826291188</v>
       </c>
@@ -4472,11 +5509,13 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
       <c r="C42" s="1">
         <v>0.65606885648570545</v>
       </c>
@@ -4493,11 +5532,13 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
       <c r="C43" s="1">
         <v>0.7116516420376594</v>
       </c>
@@ -4514,11 +5555,13 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
       <c r="C44" s="1">
         <v>0.59204028274102327</v>
       </c>
@@ -4535,11 +5578,13 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
       <c r="C45" s="1">
         <v>0.58262114063309034</v>
       </c>
@@ -4556,11 +5601,13 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
       <c r="C46" s="1">
         <v>0.50178591438984765</v>
       </c>
@@ -4577,116 +5624,128 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="20">
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18">
         <v>0.55987287267631636</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>0.39899015789131831</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>0.41780295264234402</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>1.2401835144678302</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="20">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="18">
         <v>1.0115424371149297</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="18">
         <v>0.99155851612881107</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>0.99339611806747552</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="18">
         <v>0.99632479613798453</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="20">
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18">
         <v>0.54771110313502092</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>0.36745957599923795</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>0.30712181100169383</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>0.33247574560018667</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="20">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="18">
         <v>0.50154632245440023</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>0.25287974540935998</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>0.1291291291234965</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>8.8879924709744526E-2</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="20">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="18">
         <v>0.36229417522065344</v>
       </c>
-      <c r="D51" s="20">
+      <c r="D51" s="18">
         <v>0.22724758541453519</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>0.19376249840005527</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>0.22299280946016087</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="14" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
       <c r="C52" s="1">
         <v>0.60058154902065986</v>
       </c>
@@ -4703,7 +5762,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="4"/>
@@ -4714,7 +5773,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="4"/>
@@ -4725,43 +5784,67 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1.0043438266393403</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1.3131051175293746</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1.0045278137154063</v>
+      </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -4769,10 +5852,16 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.99596256175313636</v>
+      </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -4780,10 +5869,16 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1.0120243023100548</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -4791,10 +5886,16 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1.0045100450757398</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4802,10 +5903,16 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1.0268253869824095</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -4813,10 +5920,16 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1.0004226705091259</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -4824,10 +5937,16 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="1"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1.0199723326992911</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
@@ -4835,10 +5954,16 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1.0105900150307447</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -4846,10 +5971,16 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="4"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1.0906315587046593</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -4857,10 +5988,16 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.99866981074551697</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -4868,7 +6005,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
@@ -4879,7 +6016,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -4890,7 +6027,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -4901,7 +6038,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -4912,7 +6049,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -4923,7 +6060,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -4934,7 +6071,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -4945,7 +6082,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="4"/>
@@ -4956,18 +6093,18 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" s="15" customFormat="1">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:9">
+    <row r="76" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
@@ -4978,7 +6115,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="4"/>
@@ -4989,7 +6126,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="4"/>
@@ -5000,7 +6137,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="4"/>
@@ -5011,7 +6148,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="4"/>
@@ -5022,7 +6159,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="4"/>
@@ -5033,20 +6170,20 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" s="15" customFormat="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -5055,18 +6192,18 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" s="15" customFormat="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-    </row>
-    <row r="86" spans="1:9">
+    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -5077,7 +6214,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -5088,7 +6225,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -5099,7 +6236,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -5110,9 +6247,9 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -5122,7 +6259,7 @@
       <c r="I90" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD4175A-A232-2048-B007-D7414ABE64EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A2C7C-7A1C-4445-B337-BC35CDD47CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1387,23 +1387,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200">
+                  <a:defRPr sz="1100">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1413,8 +1413,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.2566589808626611E-3"/>
-              <c:y val="9.1231830665148367E-2"/>
+              <c:x val="1.4418106808789018E-2"/>
+              <c:y val="9.1231914946487941E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1448,8 +1448,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22880840499527327"/>
-          <c:y val="7.2426377268308098E-2"/>
+          <c:x val="0.22880841484546552"/>
+          <c:y val="9.0633141738650072E-2"/>
           <c:w val="0.54900469555055242"/>
           <c:h val="8.9300760219163999E-2"/>
         </c:manualLayout>
@@ -2383,6 +2383,11 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-321C-5B4B-8A0C-9942D28F5A2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4043,18 +4048,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN" sz="1200"/>
+                <a:endParaRPr lang="zh-CN" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4062,8 +4067,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5435225218794011E-2"/>
-              <c:y val="6.5767920757126133E-2"/>
+              <c:x val="3.5435222056052929E-2"/>
+              <c:y val="0.12656204000449972"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4085,6 +4090,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34261995738577639"/>
+          <c:y val="9.7270723283461341E-2"/>
+          <c:w val="0.31475994967840076"/>
+          <c:h val="8.9800695543114817E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4576,7 +4591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E46" zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="138" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A2C7C-7A1C-4445-B337-BC35CDD47CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1708144-6340-0D46-90F3-9C2D304E7F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2643,8 +2643,118 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dedup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>facesim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ferret</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>swaptions</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>x264</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56D1-A141-90A7-4CE999565688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$40</c:f>
@@ -2767,7 +2877,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$40</c:f>
@@ -2890,7 +3000,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$40</c:f>
@@ -3010,7 +3120,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$F$40</c:f>
@@ -3122,489 +3232,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-CBA7-A24A-A17D-A183CCB3A563}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct25">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$41:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.85286482826291188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65606885648570545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7116516420376594</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.59204028274102327</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58262114063309034</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.50178591438984765</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55987287267631636</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0115424371149297</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54771110313502092</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.50154632245440023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36229417522065344</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60058154902065986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBA7-A24A-A17D-A183CCB3A563}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>32Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct50">
-              <a:fgClr>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$41:$D$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.77863887739530435</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.507026172497829</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58270656638253238</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50924760338888742</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.36818568788409439</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25147075302722993</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.39899015789131831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99155851612881107</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.36745957599923795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25287974540935998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22724758541453519</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59397303727257422</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CBA7-A24A-A17D-A183CCB3A563}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>64Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="dkHorz">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$41:$E$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.74496821036526828</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47294923590188986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5406553937518892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52890481258436628</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27063322609233587</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12779443075022412</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.41780295264234402</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99339611806747552</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30712181100169383</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1291291291234965</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19376249840005527</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60703900910453257</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CBA7-A24A-A17D-A183CCB3A563}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>128Thread</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>blackscholes</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>bodytrack</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dedup</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>facesim</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ferret</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>swaptions</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>vips</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>x264</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$41:$F$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.73616492985357174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50799227122609514</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54977685318397607</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52764597657007395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29046214470359405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.832698341718961E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2401835144678302</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.99632479613798453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33247574560018667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.8879924709744526E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.22299280946016087</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.62456100601109976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-CBA7-A24A-A17D-A183CCB3A563}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3654,18 +3281,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Normalized Runtime</a:t>
                 </a:r>
               </a:p>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN" sz="1200"/>
+                <a:endParaRPr lang="zh-CN" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3673,8 +3300,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5435225218794011E-2"/>
-              <c:y val="6.5767920757126133E-2"/>
+              <c:x val="3.1991589880307092E-2"/>
+              <c:y val="0.12656210058908174"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3696,6 +3323,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30048810473494947"/>
+          <c:y val="7.9032500500235997E-2"/>
+          <c:w val="0.39902379053010112"/>
+          <c:h val="8.9800738530234833E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3732,6 +3369,7 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4215,16 +3853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>316291</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34170</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380712</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>135402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>237819</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>98547</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302240</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>199778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4290,6 +3928,53 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54853</cdr:x>
+      <cdr:y>0.16867</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60842</cdr:x>
+      <cdr:y>0.2788</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B92471-05B7-3E4C-9DD3-FCF1D95730EB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4045881" y="352352"/>
+          <a:ext cx="441739" cy="230072"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>1.24</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4591,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="138" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1708144-6340-0D46-90F3-9C2D304E7F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5247058F-28BC-FC4C-90D9-F9DC1AC1170A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="regular" sheetId="1" r:id="rId1"/>
+    <sheet name="synthentic-application" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="49">
   <si>
     <t>blackscholes</t>
   </si>
@@ -126,6 +127,63 @@
   </si>
   <si>
     <t>With Thread Binding</t>
+  </si>
+  <si>
+    <t>thread-test</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>8T</t>
+  </si>
+  <si>
+    <t>16T</t>
+  </si>
+  <si>
+    <t>32T</t>
+  </si>
+  <si>
+    <t>64T</t>
+  </si>
+  <si>
+    <t>128T</t>
+  </si>
+  <si>
+    <t>Linux's default</t>
+  </si>
+  <si>
+    <t>NUMAlloc</t>
+  </si>
+  <si>
+    <t>TcMalloc</t>
+  </si>
+  <si>
+    <t>TcMalloc-NUMA</t>
+  </si>
+  <si>
+    <t>jemalloc</t>
+  </si>
+  <si>
+    <t>TBB</t>
+  </si>
+  <si>
+    <t>Scalloc</t>
+  </si>
+  <si>
+    <t>cache-scratch</t>
+  </si>
+  <si>
+    <t>cache-thrash</t>
+  </si>
+  <si>
+    <t>larson</t>
   </si>
 </sst>
 </file>
@@ -367,7 +425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>regular!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -392,7 +450,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -436,7 +494,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>regular!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -490,7 +548,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>regular!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +570,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -556,7 +614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>regular!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -610,7 +668,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>regular!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -635,7 +693,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -679,7 +737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>regular!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -733,7 +791,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>regular!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -755,7 +813,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -799,7 +857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>regular!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -853,7 +911,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>regular!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +931,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -917,7 +975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:f>regular!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -971,7 +1029,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>regular!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,7 +1051,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1037,7 +1095,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:f>regular!$G$2:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1091,7 +1149,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>regular!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1113,7 +1171,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1157,7 +1215,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$13</c:f>
+              <c:f>regular!$H$2:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1211,7 +1269,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>regular!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1235,7 +1293,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>regular!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1279,7 +1337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:f>regular!$I$2:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1511,7 +1569,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$24</c:f>
+              <c:f>regular!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1536,7 +1594,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1580,7 +1638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$B$36</c:f>
+              <c:f>regular!$B$25:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1634,7 +1692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$24</c:f>
+              <c:f>regular!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1659,7 +1717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1703,7 +1761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$25:$C$36</c:f>
+              <c:f>regular!$C$25:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1757,7 +1815,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$24</c:f>
+              <c:f>regular!$D$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1782,7 +1840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1826,7 +1884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$25:$D$36</c:f>
+              <c:f>regular!$D$25:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1880,7 +1938,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$24</c:f>
+              <c:f>regular!$E$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1902,7 +1960,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1946,7 +2004,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$25:$E$36</c:f>
+              <c:f>regular!$E$25:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2000,7 +2058,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$24</c:f>
+              <c:f>regular!$F$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2019,7 +2077,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2063,7 +2121,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$25:$F$36</c:f>
+              <c:f>regular!$F$25:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2117,7 +2175,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$24</c:f>
+              <c:f>regular!$G$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2139,7 +2197,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2183,7 +2241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$25:$G$36</c:f>
+              <c:f>regular!$G$25:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2237,7 +2295,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$24</c:f>
+              <c:f>regular!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +2319,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2305,7 +2363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$25:$H$36</c:f>
+              <c:f>regular!$H$25:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2359,7 +2417,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$24</c:f>
+              <c:f>regular!$I$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2391,7 +2449,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$25:$A$36</c:f>
+              <c:f>regular!$A$25:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2435,7 +2493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$25:$I$36</c:f>
+              <c:f>regular!$I$25:$I$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2647,7 +2705,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$40</c:f>
+              <c:f>regular!$B$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2659,7 +2717,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:f>regular!$A$41:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2703,7 +2761,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$41:$B$52</c:f>
+              <c:f>regular!$B$41:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2757,7 +2815,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$40</c:f>
+              <c:f>regular!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2782,7 +2840,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:f>regular!$A$41:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2826,7 +2884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$41:$C$52</c:f>
+              <c:f>regular!$C$41:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2880,7 +2938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>regular!$D$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2905,7 +2963,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:f>regular!$A$41:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2949,7 +3007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$41:$D$52</c:f>
+              <c:f>regular!$D$41:$D$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3003,7 +3061,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$40</c:f>
+              <c:f>regular!$E$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3025,7 +3083,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:f>regular!$A$41:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3069,7 +3127,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$41:$E$52</c:f>
+              <c:f>regular!$E$41:$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3123,7 +3181,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$40</c:f>
+              <c:f>regular!$F$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,7 +3200,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$41:$A$52</c:f>
+              <c:f>regular!$A$41:$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3186,7 +3244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$41:$F$52</c:f>
+              <c:f>regular!$F$41:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3399,7 +3457,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$55</c:f>
+              <c:f>regular!$B$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3424,7 +3482,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$56:$A$67</c:f>
+              <c:f>regular!$A$56:$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3468,7 +3526,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$56:$B$67</c:f>
+              <c:f>regular!$B$56:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3522,7 +3580,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$55</c:f>
+              <c:f>regular!$C$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3547,7 +3605,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$56:$A$67</c:f>
+              <c:f>regular!$A$56:$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3591,7 +3649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$56:$C$67</c:f>
+              <c:f>regular!$C$56:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4276,7 +4334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -5969,4 +6027,947 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60785272-1C43-0C4E-ACE9-EA6DED21056A}">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.0485554593404356</v>
+      </c>
+      <c r="D2">
+        <v>0.72604896481077186</v>
+      </c>
+      <c r="E2">
+        <v>9.3458238216593784E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.16364638274716498</v>
+      </c>
+      <c r="G2">
+        <v>0.14790207037996797</v>
+      </c>
+      <c r="H2">
+        <v>0.12682043611273386</v>
+      </c>
+      <c r="I2">
+        <v>0.1244902778937246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.49099112297186176</v>
+      </c>
+      <c r="D3">
+        <v>0.24246330529982113</v>
+      </c>
+      <c r="E3">
+        <v>0.11537222042933407</v>
+      </c>
+      <c r="F3">
+        <v>5.6455629448364714E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.7334251316801145E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.6552896030991956E-2</v>
+      </c>
+      <c r="I3">
+        <v>1.3183722497351811E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.95920683458413247</v>
+      </c>
+      <c r="D4">
+        <v>0.77418744680489471</v>
+      </c>
+      <c r="E4">
+        <v>0.65291132057210577</v>
+      </c>
+      <c r="F4">
+        <v>0.49932221555562728</v>
+      </c>
+      <c r="G4">
+        <v>0.46174458560206366</v>
+      </c>
+      <c r="H4">
+        <v>0.45351659782364107</v>
+      </c>
+      <c r="I4">
+        <v>0.53336906149608565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1.1244383069198407</v>
+      </c>
+      <c r="D5">
+        <v>1.0679950022926845</v>
+      </c>
+      <c r="E5">
+        <v>1.0743298042566813</v>
+      </c>
+      <c r="F5">
+        <v>0.93498608097159652</v>
+      </c>
+      <c r="G5">
+        <v>0.77144297583170662</v>
+      </c>
+      <c r="H5">
+        <v>0.67777996974256982</v>
+      </c>
+      <c r="I5">
+        <v>0.66085793823430283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.45800093852534335</v>
+      </c>
+      <c r="D6">
+        <v>0.23009541685940785</v>
+      </c>
+      <c r="E6">
+        <v>0.12431565774605678</v>
+      </c>
+      <c r="F6">
+        <v>7.7623963715523631E-2</v>
+      </c>
+      <c r="G6">
+        <v>6.0886907541114775E-2</v>
+      </c>
+      <c r="H6">
+        <v>4.708274675037933E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.4881902086955588E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1.0624330961590893</v>
+      </c>
+      <c r="D7">
+        <v>0.80435740822694879</v>
+      </c>
+      <c r="E7">
+        <v>9.2831055971394322E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.16195453686080713</v>
+      </c>
+      <c r="G7">
+        <v>0.14580316101163859</v>
+      </c>
+      <c r="H7">
+        <v>0.12917952269788849</v>
+      </c>
+      <c r="I7">
+        <v>0.12299288458364836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.69506331774674446</v>
+      </c>
+      <c r="D8">
+        <v>0.39260942672042687</v>
+      </c>
+      <c r="E8">
+        <v>0.2393069202850949</v>
+      </c>
+      <c r="F8">
+        <v>0.1715621880105988</v>
+      </c>
+      <c r="G8">
+        <v>0.14253060794973715</v>
+      </c>
+      <c r="H8">
+        <v>0.1163890494473762</v>
+      </c>
+      <c r="I8">
+        <v>0.10450055172716778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.50240329596056577</v>
+      </c>
+      <c r="D14">
+        <v>4.290913252315196</v>
+      </c>
+      <c r="E14">
+        <v>3.1028839550807175</v>
+      </c>
+      <c r="F14">
+        <v>1.7110322728026266</v>
+      </c>
+      <c r="G14">
+        <v>1.3097962920125485</v>
+      </c>
+      <c r="H14">
+        <v>0.68516823070949417</v>
+      </c>
+      <c r="I14">
+        <v>0.32799267566231194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.50131503716685022</v>
+      </c>
+      <c r="D15">
+        <v>0.25248713548818741</v>
+      </c>
+      <c r="E15">
+        <v>0.12818753574594111</v>
+      </c>
+      <c r="F15">
+        <v>6.7352773020627574E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.6935391700463671E-2</v>
+      </c>
+      <c r="H15">
+        <v>2.3556317923417325E-2</v>
+      </c>
+      <c r="I15">
+        <v>2.1154945700456534E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8.0522763670657014</v>
+      </c>
+      <c r="D16">
+        <v>7.4314802106141649</v>
+      </c>
+      <c r="E16">
+        <v>6.8967055595405489</v>
+      </c>
+      <c r="F16">
+        <v>5.2920384351826497</v>
+      </c>
+      <c r="G16">
+        <v>2.7888355067634656</v>
+      </c>
+      <c r="H16">
+        <v>1.4221002059285672</v>
+      </c>
+      <c r="I16">
+        <v>0.75623427138332167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.50347736859830372</v>
+      </c>
+      <c r="D17">
+        <v>0.25515904688765106</v>
+      </c>
+      <c r="E17">
+        <v>0.13122791013356536</v>
+      </c>
+      <c r="F17">
+        <v>6.7153118236760664E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.5343746411352475E-2</v>
+      </c>
+      <c r="H17">
+        <v>2.0636187462860462E-2</v>
+      </c>
+      <c r="I17">
+        <v>9.7024284549565395E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7.7083857685375454</v>
+      </c>
+      <c r="D18">
+        <v>7.0152156506309202</v>
+      </c>
+      <c r="E18">
+        <v>7.0684132252627725</v>
+      </c>
+      <c r="F18">
+        <v>5.2224001832183005</v>
+      </c>
+      <c r="G18">
+        <v>2.6972886398333293</v>
+      </c>
+      <c r="H18">
+        <v>1.423750143047203</v>
+      </c>
+      <c r="I18">
+        <v>0.7451092552493348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.5020599679541663</v>
+      </c>
+      <c r="D19">
+        <v>4.2130922406808038</v>
+      </c>
+      <c r="E19">
+        <v>3.1178759440846546</v>
+      </c>
+      <c r="F19">
+        <v>1.7122911420999141</v>
+      </c>
+      <c r="G19">
+        <v>1.2764934767697005</v>
+      </c>
+      <c r="H19">
+        <v>0.68677042792986664</v>
+      </c>
+      <c r="I19">
+        <v>0.31929503316220753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0.50171585447995026</v>
+      </c>
+      <c r="D20">
+        <v>0.25291695263138103</v>
+      </c>
+      <c r="E20">
+        <v>0.12880347748105597</v>
+      </c>
+      <c r="F20">
+        <v>6.6003202922058968E-2</v>
+      </c>
+      <c r="G20">
+        <v>3.5003431692976372E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.3793182359848213E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.0819034548875424E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0.50046994636009345</v>
+      </c>
+      <c r="D26">
+        <v>0.25067626427399015</v>
+      </c>
+      <c r="E26">
+        <v>0.12541836688093164</v>
+      </c>
+      <c r="F26">
+        <v>6.2926963461372692E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.1727110177708497E-2</v>
+      </c>
+      <c r="H26">
+        <v>1.612718353161249E-2</v>
+      </c>
+      <c r="I26">
+        <v>1.2252991602769246E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.50019484240871059</v>
+      </c>
+      <c r="D27">
+        <v>0.25036103152045847</v>
+      </c>
+      <c r="E27">
+        <v>0.12543266475369627</v>
+      </c>
+      <c r="F27">
+        <v>6.299140400825215E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.1885386815541546E-2</v>
+      </c>
+      <c r="H27">
+        <v>1.6332378223495703E-2</v>
+      </c>
+      <c r="I27">
+        <v>9.4212034413295141E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>8.002097637578661</v>
+      </c>
+      <c r="D28">
+        <v>7.6997168762393837</v>
+      </c>
+      <c r="E28">
+        <v>6.2107036829013884</v>
+      </c>
+      <c r="F28">
+        <v>4.8178723306702125</v>
+      </c>
+      <c r="G28">
+        <v>2.7327747274882221</v>
+      </c>
+      <c r="H28">
+        <v>1.4332939787485244</v>
+      </c>
+      <c r="I28">
+        <v>0.74479889043362646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.50053852146936151</v>
+      </c>
+      <c r="D29">
+        <v>0.2509166322957056</v>
+      </c>
+      <c r="E29">
+        <v>0.12578486639809341</v>
+      </c>
+      <c r="F29">
+        <v>6.332783353902563E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.2059214442366743E-2</v>
+      </c>
+      <c r="H29">
+        <v>1.6545212885100143E-2</v>
+      </c>
+      <c r="I29">
+        <v>1.2466199187313808E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.50046995713624176</v>
+      </c>
+      <c r="D30">
+        <v>0.25073932280323696</v>
+      </c>
+      <c r="E30">
+        <v>0.12559317759794594</v>
+      </c>
+      <c r="F30">
+        <v>6.3146191054583814E-2</v>
+      </c>
+      <c r="G30">
+        <v>3.214048279819353E-2</v>
+      </c>
+      <c r="H30">
+        <v>1.7056005138259094E-2</v>
+      </c>
+      <c r="I30">
+        <v>1.3067100706632128E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0.50040690944144517</v>
+      </c>
+      <c r="D31">
+        <v>0.25063328863060647</v>
+      </c>
+      <c r="E31">
+        <v>0.12547711564159875</v>
+      </c>
+      <c r="F31">
+        <v>6.2962071455222771E-2</v>
+      </c>
+      <c r="G31">
+        <v>3.1727473837075755E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.6161755099572458E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.2493839049826349E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.50026361635705119</v>
+      </c>
+      <c r="D32">
+        <v>0.25077938749404</v>
+      </c>
+      <c r="E32">
+        <v>0.12553869429763434</v>
+      </c>
+      <c r="F32">
+        <v>6.3015771135705112E-2</v>
+      </c>
+      <c r="G32">
+        <v>3.1805886667889235E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.6458830001192002E-2</v>
+      </c>
+      <c r="I32">
+        <v>1.260773885934348E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.9997761013926022</v>
+      </c>
+      <c r="D37">
+        <v>0.99990320064855565</v>
+      </c>
+      <c r="E37">
+        <v>1.0002178670812742</v>
+      </c>
+      <c r="F37">
+        <v>1.0000732405337003</v>
+      </c>
+      <c r="G37">
+        <v>9.3858945105524991E-2</v>
+      </c>
+      <c r="H37">
+        <v>5.8947390128057976E-2</v>
+      </c>
+      <c r="I37">
+        <v>4.5897921623759629E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0.99940882415211674</v>
+      </c>
+      <c r="D38">
+        <v>1.000132191724139</v>
+      </c>
+      <c r="E38">
+        <v>1.0002589235227077</v>
+      </c>
+      <c r="F38">
+        <v>1.0003837087997438</v>
+      </c>
+      <c r="G38">
+        <v>0.11691319071997838</v>
+      </c>
+      <c r="H38">
+        <v>6.2573552894132009E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.9557421870209192E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.99992245323141948</v>
+      </c>
+      <c r="D39">
+        <v>0.99977385060220125</v>
+      </c>
+      <c r="E39">
+        <v>1.0001022094907053</v>
+      </c>
+      <c r="F39">
+        <v>1.0002609867015897</v>
+      </c>
+      <c r="G39">
+        <v>0.13197025224450049</v>
+      </c>
+      <c r="H39">
+        <v>6.7290338633299487E-2</v>
+      </c>
+      <c r="I39">
+        <v>7.4103151696110731E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1.0039143627471208</v>
+      </c>
+      <c r="D40">
+        <v>1.0011806121384581</v>
+      </c>
+      <c r="E40">
+        <v>1.0045834526781963</v>
+      </c>
+      <c r="F40">
+        <v>1.0013869671056783</v>
+      </c>
+      <c r="G40">
+        <v>0.2586412640527806</v>
+      </c>
+      <c r="H40">
+        <v>1.068641393890291</v>
+      </c>
+      <c r="I40">
+        <v>10.349483851994842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.99830255526135525</v>
+      </c>
+      <c r="D41">
+        <v>1.0007859085383908</v>
+      </c>
+      <c r="E41">
+        <v>0.99812829533568126</v>
+      </c>
+      <c r="F41">
+        <v>0.99913053452976452</v>
+      </c>
+      <c r="G41">
+        <v>0.11979031544841628</v>
+      </c>
+      <c r="H41">
+        <v>6.9012730338559605E-2</v>
+      </c>
+      <c r="I41">
+        <v>0.10151579491441876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.000478910690713</v>
+      </c>
+      <c r="D42">
+        <v>1.0003217421677268</v>
+      </c>
+      <c r="E42">
+        <v>1.0006537753875295</v>
+      </c>
+      <c r="F42">
+        <v>0.99948114703151303</v>
+      </c>
+      <c r="G42">
+        <v>9.7837073244269129E-2</v>
+      </c>
+      <c r="H42">
+        <v>6.1527515576756876E-2</v>
+      </c>
+      <c r="I42">
+        <v>4.57778296204501E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.99674467392483812</v>
+      </c>
+      <c r="D43">
+        <v>1.0002472471244708</v>
+      </c>
+      <c r="E43">
+        <v>0.99643635036715283</v>
+      </c>
+      <c r="F43">
+        <v>1.0008109137625789</v>
+      </c>
+      <c r="G43">
+        <v>5.9000640307169623E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.11032679778778384</v>
+      </c>
+      <c r="I43">
+        <v>0.1813551260218651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,62 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855A89C-425D-6640-BB63-20422E4939D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CF36F-18F6-D548-8922-E86E09CF7FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
     <sheet name="synthentic-application" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3678,40 +3631,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0043438266393403</c:v>
+                  <c:v>0.98591693027480531</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3131051175293746</c:v>
+                  <c:v>0.97432503970354689</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0045278137154063</c:v>
+                  <c:v>0.99409067423927566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99596256175313636</c:v>
+                  <c:v>0.90430159489142303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0120243023100548</c:v>
+                  <c:v>0.96710422372024429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0045100450757398</c:v>
+                  <c:v>0.99866406331926694</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0268253869824095</c:v>
+                  <c:v>0.22444635322156581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0004226705091259</c:v>
+                  <c:v>1.0011916245860577</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0199723326992911</c:v>
+                  <c:v>0.80624492758711719</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0105900150307447</c:v>
+                  <c:v>0.85630026795829495</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0906315587046593</c:v>
+                  <c:v>0.98779201202137989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99866981074551697</c:v>
+                  <c:v>0.91294232888943305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12406,8 +12359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13635,11 +13588,11 @@
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="5">
         <v>1</v>
       </c>
       <c r="C56" s="4">
-        <v>1.0043438266393403</v>
+        <v>0.98591693027480531</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="11"/>
@@ -13652,11 +13605,11 @@
       <c r="A57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="4">
-        <v>1.3131051175293746</v>
+        <v>0.97432503970354689</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -13669,11 +13622,11 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="C58" s="4">
-        <v>1.0045278137154063</v>
+        <v>0.99409067423927566</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -13686,11 +13639,11 @@
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59" s="4">
-        <v>0.99596256175313636</v>
+        <v>0.90430159489142303</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -13703,11 +13656,11 @@
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="12">
         <v>1</v>
       </c>
-      <c r="C60" s="4">
-        <v>1.0120243023100548</v>
+      <c r="C60" s="19">
+        <v>0.96710422372024429</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -13720,11 +13673,11 @@
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>1</v>
       </c>
       <c r="C61" s="4">
-        <v>1.0045100450757398</v>
+        <v>0.99866406331926694</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -13737,11 +13690,11 @@
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="7">
         <v>1</v>
       </c>
       <c r="C62" s="4">
-        <v>1.0268253869824095</v>
+        <v>0.22444635322156581</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -13754,11 +13707,11 @@
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="7">
         <v>1</v>
       </c>
       <c r="C63" s="4">
-        <v>1.0004226705091259</v>
+        <v>1.0011916245860577</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -13771,11 +13724,11 @@
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="7">
         <v>1</v>
       </c>
       <c r="C64" s="4">
-        <v>1.0199723326992911</v>
+        <v>0.80624492758711719</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -13788,11 +13741,11 @@
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>1</v>
       </c>
       <c r="C65" s="4">
-        <v>1.0105900150307447</v>
+        <v>0.85630026795829495</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -13805,11 +13758,11 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
       <c r="C66" s="4">
-        <v>1.0906315587046593</v>
+        <v>0.98779201202137989</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -13822,11 +13775,11 @@
       <c r="A67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="14">
         <v>1</v>
       </c>
-      <c r="C67" s="4">
-        <v>0.99866981074551697</v>
+      <c r="C67" s="19">
+        <v>0.91294232888943305</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -14105,7 +14058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60785272-1C43-0C4E-ACE9-EA6DED21056A}">
   <dimension ref="A1:DY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="253" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="253" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CF36F-18F6-D548-8922-E86E09CF7FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB0E17-BB49-C747-81DC-BFB6B7EFDF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -76,18 +76,6 @@
     <t>x264</t>
   </si>
   <si>
-    <t>16Thread</t>
-  </si>
-  <si>
-    <t>32Thread</t>
-  </si>
-  <si>
-    <t>64Thread</t>
-  </si>
-  <si>
-    <t>128Thread</t>
-  </si>
-  <si>
     <t>16T-1N</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
   </si>
   <si>
     <t>numalloc</t>
-  </si>
-  <si>
-    <t>8Thread</t>
   </si>
   <si>
     <t>128threads</t>
@@ -161,6 +146,21 @@
   </si>
   <si>
     <t>cache-scrach</t>
+  </si>
+  <si>
+    <t>8Threads</t>
+  </si>
+  <si>
+    <t>16Threads</t>
+  </si>
+  <si>
+    <t>32Threads</t>
+  </si>
+  <si>
+    <t>64Threads</t>
+  </si>
+  <si>
+    <t>128Threads</t>
   </si>
 </sst>
 </file>
@@ -1422,23 +1422,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1448,8 +1448,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4418106808789018E-2"/>
-              <c:y val="9.1231914946487941E-2"/>
+              <c:x val="1.4418150718703985E-2"/>
+              <c:y val="0.15829844312051844"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2686,7 +2686,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8Thread</c:v>
+                  <c:v>8Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2796,7 +2796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread</c:v>
+                  <c:v>16Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2919,7 +2919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread</c:v>
+                  <c:v>32Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3042,7 +3042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread</c:v>
+                  <c:v>64Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3162,7 +3162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128Thread</c:v>
+                  <c:v>128Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3304,7 +3304,7 @@
         <c:axId val="2121495336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3335,8 +3335,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.1991589880307092E-2"/>
-              <c:y val="0.12656210058908174"/>
+              <c:x val="3.1991557862241234E-2"/>
+              <c:y val="0.14884091493884291"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3404,7 +3404,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3430,7 +3429,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3438,13 +3437,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>W/O Thread Binding</c:v>
+                  <c:v>With Thread Binding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="smCheck">
+            <a:pattFill prst="pct20">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -3548,12 +3547,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E66D-5042-B5D2-D80BBCADDB56}"/>
+              <c16:uniqueId val="{00000008-E66D-5042-B5D2-D80BBCADDB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3561,13 +3560,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With Thread Binding</c:v>
+                  <c:v>W/O Thread Binding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct25">
+            <a:pattFill prst="narVert">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -3631,47 +3630,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.98591693027480531</c:v>
+                  <c:v>1.0142842356112796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97432503970354689</c:v>
+                  <c:v>1.026351534908992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99409067423927566</c:v>
+                  <c:v>1.0059444534727644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90430159489142303</c:v>
+                  <c:v>1.1058257617250662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96710422372024429</c:v>
+                  <c:v>1.0340147167936178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99866406331926694</c:v>
+                  <c:v>1.0013377237950194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22444635322156581</c:v>
+                  <c:v>4.4554076537516032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0011916245860577</c:v>
+                  <c:v>0.99880979369304002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80624492758711719</c:v>
+                  <c:v>1.2403178808116557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85630026795829495</c:v>
+                  <c:v>1.1678146526618907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98779201202137989</c:v>
+                  <c:v>1.0123588648521649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91294232888943305</c:v>
+                  <c:v>1.0953594420542094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E66D-5042-B5D2-D80BBCADDB56}"/>
+              <c16:uniqueId val="{00000007-E66D-5042-B5D2-D80BBCADDB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3709,7 +3708,8 @@
         <c:axId val="2121495336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="1.4"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3740,8 +3740,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5435222056052929E-2"/>
-              <c:y val="0.12656204000449972"/>
+              <c:x val="3.197230462081363E-2"/>
+              <c:y val="0.15455282391850844"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3809,6 +3809,7 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -11673,9 +11674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>77580</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58421</xdr:rowOff>
+      <xdr:colOff>140535</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11711,7 +11712,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>96523</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142119</xdr:rowOff>
+      <xdr:rowOff>148401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11741,13 +11742,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>380712</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>135402</xdr:rowOff>
+      <xdr:rowOff>135401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>302240</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>199778</xdr:rowOff>
+      <xdr:colOff>317373</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11778,14 +11779,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>751262</xdr:colOff>
+      <xdr:colOff>757514</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>98243</xdr:rowOff>
+      <xdr:rowOff>124076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11819,42 +11820,70 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.54853</cdr:x>
-      <cdr:y>0.16867</cdr:y>
+      <cdr:x>0.50974</cdr:x>
+      <cdr:y>0.15675</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60842</cdr:x>
-      <cdr:y>0.2788</cdr:y>
+      <cdr:x>0.57622</cdr:x>
+      <cdr:y>0.23736</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
+        <cdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B92471-05B7-3E4C-9DD3-FCF1D95730EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B4F1A6-358F-B14F-9782-2920680BD233}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4045881" y="352352"/>
-          <a:ext cx="441739" cy="230072"/>
+          <a:off x="3738880" y="355600"/>
+          <a:ext cx="487680" cy="182880"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
       </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>1.24</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.45</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -12359,39 +12388,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -12840,31 +12869,31 @@
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -13251,19 +13280,19 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -13569,16 +13598,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -13588,14 +13616,13 @@
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="4">
-        <v>0.98591693027480531</v>
+      <c r="C56" s="5">
+        <v>1.0142842356112796</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -13605,14 +13632,13 @@
       <c r="A57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>1</v>
       </c>
-      <c r="C57" s="4">
-        <v>0.97432503970354689</v>
+      <c r="C57" s="3">
+        <v>1.026351534908992</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
@@ -13622,14 +13648,13 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>1</v>
       </c>
-      <c r="C58" s="4">
-        <v>0.99409067423927566</v>
+      <c r="C58" s="3">
+        <v>1.0059444534727644</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -13639,14 +13664,13 @@
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="4">
-        <v>0.90430159489142303</v>
+      <c r="C59" s="5">
+        <v>1.1058257617250662</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -13656,14 +13680,13 @@
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="19">
         <v>1</v>
       </c>
-      <c r="C60" s="19">
-        <v>0.96710422372024429</v>
+      <c r="C60" s="12">
+        <v>1.0340147167936178</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -13673,14 +13696,13 @@
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="4">
         <v>1</v>
       </c>
-      <c r="C61" s="4">
-        <v>0.99866406331926694</v>
+      <c r="C61" s="6">
+        <v>1.0013377237950194</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -13690,14 +13712,13 @@
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="4">
-        <v>0.22444635322156581</v>
+      <c r="C62" s="7">
+        <v>4.4554076537516032</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -13707,14 +13728,13 @@
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="4">
         <v>1</v>
       </c>
-      <c r="C63" s="4">
-        <v>1.0011916245860577</v>
+      <c r="C63" s="7">
+        <v>0.99880979369304002</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -13724,14 +13744,13 @@
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="4">
-        <v>0.80624492758711719</v>
+      <c r="C64" s="7">
+        <v>1.2403178808116557</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
@@ -13741,14 +13760,13 @@
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="4">
-        <v>0.85630026795829495</v>
+      <c r="C65" s="1">
+        <v>1.1678146526618907</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -13758,14 +13776,13 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="4">
         <v>1</v>
       </c>
-      <c r="C66" s="4">
-        <v>0.98779201202137989</v>
+      <c r="C66" s="1">
+        <v>1.0123588648521649</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -13775,14 +13792,13 @@
       <c r="A67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="19">
         <v>1</v>
       </c>
-      <c r="C67" s="19">
-        <v>0.91294232888943305</v>
+      <c r="C67" s="14">
+        <v>1.0953594420542094</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -14058,7 +14074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60785272-1C43-0C4E-ACE9-EA6DED21056A}">
   <dimension ref="A1:DY43"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="253" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="253" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -14069,7 +14085,7 @@
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -14098,7 +14114,7 @@
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14127,7 +14143,7 @@
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14156,7 +14172,7 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14185,7 +14201,7 @@
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -14214,7 +14230,7 @@
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -14243,7 +14259,7 @@
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -14272,7 +14288,7 @@
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -14301,7 +14317,7 @@
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14330,7 +14346,7 @@
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14359,7 +14375,7 @@
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -14388,7 +14404,7 @@
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -14417,7 +14433,7 @@
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -14446,7 +14462,7 @@
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -14475,7 +14491,7 @@
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -14504,7 +14520,7 @@
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14533,7 +14549,7 @@
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -14562,7 +14578,7 @@
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -14591,7 +14607,7 @@
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -14620,7 +14636,7 @@
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -14649,7 +14665,7 @@
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -14678,7 +14694,7 @@
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -14707,7 +14723,7 @@
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -14736,7 +14752,7 @@
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14765,7 +14781,7 @@
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14794,7 +14810,7 @@
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14823,7 +14839,7 @@
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -14852,7 +14868,7 @@
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -14881,7 +14897,7 @@
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14910,7 +14926,7 @@
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14939,7 +14955,7 @@
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -14968,7 +14984,7 @@
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15014,7 +15030,7 @@
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -15043,7 +15059,7 @@
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15072,7 +15088,7 @@
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15101,7 +15117,7 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15130,7 +15146,7 @@
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15159,7 +15175,7 @@
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15188,7 +15204,7 @@
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15217,7 +15233,7 @@
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB0E17-BB49-C747-81DC-BFB6B7EFDF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54392C76-1779-F248-A466-8F2E17F4CD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
@@ -11820,12 +11820,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.50974</cdr:x>
-      <cdr:y>0.15675</cdr:y>
+      <cdr:x>0.52635</cdr:x>
+      <cdr:y>0.15231</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57622</cdr:x>
-      <cdr:y>0.23736</cdr:y>
+      <cdr:x>0.59283</cdr:x>
+      <cdr:y>0.23292</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -11840,8 +11840,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3738880" y="355600"/>
-          <a:ext cx="487680" cy="182880"/>
+          <a:off x="3864020" y="348508"/>
+          <a:ext cx="488043" cy="184449"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>

--- a/paper/data/scalobility/8node-scalobolity-pic.xlsx
+++ b/paper/data/scalobility/8node-scalobolity-pic.xlsx
@@ -8,62 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/scalobility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4855A89C-425D-6640-BB63-20422E4939D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54392C76-1779-F248-A466-8F2E17F4CD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1940" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regular" sheetId="1" r:id="rId1"/>
     <sheet name="synthentic-application" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'synthentic-application'!$A$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'synthentic-application'!$A$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'synthentic-application'!$A$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'synthentic-application'!$A$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'synthentic-application'!$A$6</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'synthentic-application'!$B$4:$DY$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'synthentic-application'!$B$5:$DY$5</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'synthentic-application'!$B$6:$DY$6</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'synthentic-application'!$B$7:$DY$7</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'synthentic-application'!$B$8:$DY$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'synthentic-application'!$A$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'synthentic-application'!$A$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'synthentic-application'!$B$1:$DY$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'synthentic-application'!$B$2:$DY$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'synthentic-application'!$B$3:$DY$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -123,18 +76,6 @@
     <t>x264</t>
   </si>
   <si>
-    <t>16Thread</t>
-  </si>
-  <si>
-    <t>32Thread</t>
-  </si>
-  <si>
-    <t>64Thread</t>
-  </si>
-  <si>
-    <t>128Thread</t>
-  </si>
-  <si>
     <t>16T-1N</t>
   </si>
   <si>
@@ -163,9 +104,6 @@
   </si>
   <si>
     <t>numalloc</t>
-  </si>
-  <si>
-    <t>8Thread</t>
   </si>
   <si>
     <t>128threads</t>
@@ -208,6 +146,21 @@
   </si>
   <si>
     <t>cache-scrach</t>
+  </si>
+  <si>
+    <t>8Threads</t>
+  </si>
+  <si>
+    <t>16Threads</t>
+  </si>
+  <si>
+    <t>32Threads</t>
+  </si>
+  <si>
+    <t>64Threads</t>
+  </si>
+  <si>
+    <t>128Threads</t>
   </si>
 </sst>
 </file>
@@ -1469,23 +1422,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
                     <a:latin typeface="Times New Roman"/>
                   </a:rPr>
                   <a:t> Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman"/>
                 </a:endParaRPr>
               </a:p>
@@ -1495,8 +1448,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4418106808789018E-2"/>
-              <c:y val="9.1231914946487941E-2"/>
+              <c:x val="1.4418150718703985E-2"/>
+              <c:y val="0.15829844312051844"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2733,7 +2686,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8Thread</c:v>
+                  <c:v>8Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,7 +2796,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16Thread</c:v>
+                  <c:v>16Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2966,7 +2919,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32Thread</c:v>
+                  <c:v>32Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3089,7 +3042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64Thread</c:v>
+                  <c:v>64Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3209,7 +3162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128Thread</c:v>
+                  <c:v>128Threads</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3351,7 +3304,7 @@
         <c:axId val="2121495336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3382,8 +3335,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.1991589880307092E-2"/>
-              <c:y val="0.12656210058908174"/>
+              <c:x val="3.1991557862241234E-2"/>
+              <c:y val="0.14884091493884291"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3451,7 +3404,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3477,7 +3429,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3485,13 +3437,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>W/O Thread Binding</c:v>
+                  <c:v>With Thread Binding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="smCheck">
+            <a:pattFill prst="pct20">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -3595,12 +3547,12 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E66D-5042-B5D2-D80BBCADDB56}"/>
+              <c16:uniqueId val="{00000008-E66D-5042-B5D2-D80BBCADDB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3608,13 +3560,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>With Thread Binding</c:v>
+                  <c:v>W/O Thread Binding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct25">
+            <a:pattFill prst="narVert">
               <a:fgClr>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="85000"/>
@@ -3678,47 +3630,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0043438266393403</c:v>
+                  <c:v>1.0142842356112796</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3131051175293746</c:v>
+                  <c:v>1.026351534908992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0045278137154063</c:v>
+                  <c:v>1.0059444534727644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99596256175313636</c:v>
+                  <c:v>1.1058257617250662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0120243023100548</c:v>
+                  <c:v>1.0340147167936178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0045100450757398</c:v>
+                  <c:v>1.0013377237950194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0268253869824095</c:v>
+                  <c:v>4.4554076537516032</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0004226705091259</c:v>
+                  <c:v>0.99880979369304002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0199723326992911</c:v>
+                  <c:v>1.2403178808116557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0105900150307447</c:v>
+                  <c:v>1.1678146526618907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0906315587046593</c:v>
+                  <c:v>1.0123588648521649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.99866981074551697</c:v>
+                  <c:v>1.0953594420542094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E66D-5042-B5D2-D80BBCADDB56}"/>
+              <c16:uniqueId val="{00000007-E66D-5042-B5D2-D80BBCADDB56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3756,7 +3708,8 @@
         <c:axId val="2121495336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
+          <c:max val="1.4"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3787,8 +3740,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.5435222056052929E-2"/>
-              <c:y val="0.12656204000449972"/>
+              <c:x val="3.197230462081363E-2"/>
+              <c:y val="0.15455282391850844"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3856,6 +3809,7 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -11720,9 +11674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>77580</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58421</xdr:rowOff>
+      <xdr:colOff>140535</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11758,7 +11712,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>96523</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142119</xdr:rowOff>
+      <xdr:rowOff>148401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11788,13 +11742,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>380712</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>135402</xdr:rowOff>
+      <xdr:rowOff>135401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>302240</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>199778</xdr:rowOff>
+      <xdr:colOff>317373</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>188357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11825,14 +11779,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>751262</xdr:colOff>
+      <xdr:colOff>757514</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>98243</xdr:rowOff>
+      <xdr:rowOff>124076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11866,42 +11820,70 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.54853</cdr:x>
-      <cdr:y>0.16867</cdr:y>
+      <cdr:x>0.52635</cdr:x>
+      <cdr:y>0.15231</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.60842</cdr:x>
-      <cdr:y>0.2788</cdr:y>
+      <cdr:x>0.59283</cdr:x>
+      <cdr:y>0.23292</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
+        <cdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B92471-05B7-3E4C-9DD3-FCF1D95730EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B4F1A6-358F-B14F-9782-2920680BD233}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
+        <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4045881" y="352352"/>
-          <a:ext cx="441739" cy="230072"/>
+          <a:off x="3864020" y="348508"/>
+          <a:ext cx="488043" cy="184449"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
       </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>1.24</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4.45</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -12406,39 +12388,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -12887,31 +12869,31 @@
     </row>
     <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -13298,19 +13280,19 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -13616,16 +13598,15 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -13635,14 +13616,13 @@
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="4">
-        <v>1.0043438266393403</v>
+      <c r="C56" s="5">
+        <v>1.0142842356112796</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -13652,14 +13632,13 @@
       <c r="A57" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>1</v>
       </c>
-      <c r="C57" s="4">
-        <v>1.3131051175293746</v>
+      <c r="C57" s="3">
+        <v>1.026351534908992</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="9"/>
       <c r="H57" s="8"/>
@@ -13669,14 +13648,13 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>1</v>
       </c>
-      <c r="C58" s="4">
-        <v>1.0045278137154063</v>
+      <c r="C58" s="3">
+        <v>1.0059444534727644</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -13686,14 +13664,13 @@
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="4">
-        <v>0.99596256175313636</v>
+      <c r="C59" s="5">
+        <v>1.1058257617250662</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -13703,14 +13680,13 @@
       <c r="A60" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="19">
         <v>1</v>
       </c>
-      <c r="C60" s="4">
-        <v>1.0120243023100548</v>
+      <c r="C60" s="12">
+        <v>1.0340147167936178</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -13720,14 +13696,13 @@
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>1</v>
       </c>
-      <c r="C61" s="4">
-        <v>1.0045100450757398</v>
+      <c r="C61" s="6">
+        <v>1.0013377237950194</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -13737,14 +13712,13 @@
       <c r="A62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="4">
-        <v>1.0268253869824095</v>
+      <c r="C62" s="7">
+        <v>4.4554076537516032</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -13754,14 +13728,13 @@
       <c r="A63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>1</v>
       </c>
-      <c r="C63" s="4">
-        <v>1.0004226705091259</v>
+      <c r="C63" s="7">
+        <v>0.99880979369304002</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -13771,14 +13744,13 @@
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="4">
-        <v>1.0199723326992911</v>
+      <c r="C64" s="7">
+        <v>1.2403178808116557</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1"/>
@@ -13788,14 +13760,13 @@
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="4">
-        <v>1.0105900150307447</v>
+      <c r="C65" s="1">
+        <v>1.1678146526618907</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -13805,14 +13776,13 @@
       <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>1</v>
       </c>
-      <c r="C66" s="4">
-        <v>1.0906315587046593</v>
+      <c r="C66" s="1">
+        <v>1.0123588648521649</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -13822,14 +13792,13 @@
       <c r="A67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="19">
         <v>1</v>
       </c>
-      <c r="C67" s="4">
-        <v>0.99866981074551697</v>
+      <c r="C67" s="14">
+        <v>1.0953594420542094</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -14105,7 +14074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60785272-1C43-0C4E-ACE9-EA6DED21056A}">
   <dimension ref="A1:DY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="253" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="125" zoomScaleNormal="253" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -14116,7 +14085,7 @@
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -14145,7 +14114,7 @@
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14174,7 +14143,7 @@
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14203,7 +14172,7 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14232,7 +14201,7 @@
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -14261,7 +14230,7 @@
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -14290,7 +14259,7 @@
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -14319,7 +14288,7 @@
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -14348,7 +14317,7 @@
     </row>
     <row r="13" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -14377,7 +14346,7 @@
     </row>
     <row r="14" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14406,7 +14375,7 @@
     </row>
     <row r="15" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -14435,7 +14404,7 @@
     </row>
     <row r="16" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -14464,7 +14433,7 @@
     </row>
     <row r="17" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -14493,7 +14462,7 @@
     </row>
     <row r="18" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -14522,7 +14491,7 @@
     </row>
     <row r="19" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -14551,7 +14520,7 @@
     </row>
     <row r="20" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -14580,7 +14549,7 @@
     </row>
     <row r="25" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -14609,7 +14578,7 @@
     </row>
     <row r="26" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -14638,7 +14607,7 @@
     </row>
     <row r="27" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -14667,7 +14636,7 @@
     </row>
     <row r="28" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -14696,7 +14665,7 @@
     </row>
     <row r="29" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -14725,7 +14694,7 @@
     </row>
     <row r="30" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -14754,7 +14723,7 @@
     </row>
     <row r="31" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -14783,7 +14752,7 @@
     </row>
     <row r="32" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -14812,7 +14781,7 @@
     </row>
     <row r="36" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -14841,7 +14810,7 @@
     </row>
     <row r="37" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -14870,7 +14839,7 @@
     </row>
     <row r="38" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -14899,7 +14868,7 @@
     </row>
     <row r="39" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -14928,7 +14897,7 @@
     </row>
     <row r="40" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -14957,7 +14926,7 @@
     </row>
     <row r="41" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -14986,7 +14955,7 @@
     </row>
     <row r="42" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -15015,7 +14984,7 @@
     </row>
     <row r="43" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -15061,7 +15030,7 @@
   <sheetData>
     <row r="1" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -15090,7 +15059,7 @@
     </row>
     <row r="2" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15119,7 +15088,7 @@
     </row>
     <row r="3" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15148,7 +15117,7 @@
     </row>
     <row r="4" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15177,7 +15146,7 @@
     </row>
     <row r="5" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15206,7 +15175,7 @@
     </row>
     <row r="6" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15235,7 +15204,7 @@
     </row>
     <row r="7" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15264,7 +15233,7 @@
     </row>
     <row r="8" spans="1:129" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
